--- a/input_spreadsheets/Tanzania/regions/InputForCode_Simiyu_v2.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Simiyu_v2.xlsx
@@ -5,46 +5,65 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Optima Nutrition/Applications/Tanzania/RegionalBooks/NewBooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1C51AE-4512-3A49-BAD7-B9AB268BFA72}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD8C543-BB7A-B847-8BBD-26CD3CCDC775}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500" firstSheet="26" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Baseline year demographics" sheetId="1" r:id="rId1"/>
-    <sheet name="Demographic projections" sheetId="2" r:id="rId2"/>
-    <sheet name="Annual prevalence" sheetId="46" r:id="rId3"/>
-    <sheet name="Causes of death" sheetId="4" r:id="rId4"/>
-    <sheet name="Distributions" sheetId="5" r:id="rId5"/>
-    <sheet name="Incidence of conditions" sheetId="7" r:id="rId6"/>
-    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId7"/>
-    <sheet name="Distribution births" sheetId="36" r:id="rId8"/>
-    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId9"/>
-    <sheet name="Relative risks" sheetId="26" r:id="rId10"/>
-    <sheet name="Odds ratios" sheetId="27" r:id="rId11"/>
-    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId12"/>
-    <sheet name="IYCF packages" sheetId="33" r:id="rId13"/>
-    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId14"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId15"/>
-    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId16"/>
-    <sheet name="Programs anaemia" sheetId="30" r:id="rId17"/>
-    <sheet name="Programs wasting" sheetId="31" r:id="rId18"/>
-    <sheet name="Programs for children" sheetId="28" r:id="rId19"/>
-    <sheet name="Programs family planning" sheetId="34" r:id="rId20"/>
-    <sheet name="Programs for PW" sheetId="38" r:id="rId21"/>
-    <sheet name="Programs birth age" sheetId="37" r:id="rId22"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId23"/>
-    <sheet name="Programs impacted population" sheetId="39" r:id="rId24"/>
-    <sheet name="Program dependencies" sheetId="40" r:id="rId25"/>
-    <sheet name="Program risk areas" sheetId="41" r:id="rId26"/>
-    <sheet name="Population risk areas" sheetId="42" r:id="rId27"/>
-    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId28"/>
-    <sheet name="Programs annual spending" sheetId="43" r:id="rId29"/>
-    <sheet name="Reference programs" sheetId="44" r:id="rId30"/>
-    <sheet name="Programs to include" sheetId="45" r:id="rId31"/>
+    <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
+    <sheet name="Baseline year demographics" sheetId="1" r:id="rId2"/>
+    <sheet name="Demographic projections" sheetId="2" r:id="rId3"/>
+    <sheet name="Annual prevalence" sheetId="46" r:id="rId4"/>
+    <sheet name="Causes of death" sheetId="4" r:id="rId5"/>
+    <sheet name="Distributions" sheetId="5" r:id="rId6"/>
+    <sheet name="Incidence of conditions" sheetId="7" r:id="rId7"/>
+    <sheet name="Prevalence of anaemia" sheetId="29" r:id="rId8"/>
+    <sheet name="Distribution births" sheetId="36" r:id="rId9"/>
+    <sheet name="Birth outcomes &amp; risks" sheetId="6" r:id="rId10"/>
+    <sheet name="Relative risks" sheetId="26" r:id="rId11"/>
+    <sheet name="Odds ratios" sheetId="27" r:id="rId12"/>
+    <sheet name="IYCF package odds ratios" sheetId="32" r:id="rId13"/>
+    <sheet name="IYCF packages" sheetId="33" r:id="rId14"/>
+    <sheet name="IYCF cost &amp; coverage" sheetId="35" r:id="rId15"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId16"/>
+    <sheet name="Programs birth outcomes" sheetId="22" r:id="rId17"/>
+    <sheet name="Programs anaemia" sheetId="30" r:id="rId18"/>
+    <sheet name="Programs wasting" sheetId="31" r:id="rId19"/>
+    <sheet name="Programs for children" sheetId="28" r:id="rId20"/>
+    <sheet name="Programs family planning" sheetId="34" r:id="rId21"/>
+    <sheet name="Programs for PW" sheetId="38" r:id="rId22"/>
+    <sheet name="Programs birth age" sheetId="37" r:id="rId23"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId24"/>
+    <sheet name="Programs impacted population" sheetId="39" r:id="rId25"/>
+    <sheet name="Program dependencies" sheetId="40" r:id="rId26"/>
+    <sheet name="Program risk areas" sheetId="41" r:id="rId27"/>
+    <sheet name="Population risk areas" sheetId="42" r:id="rId28"/>
+    <sheet name="Programs cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Programs annual spending" sheetId="43" r:id="rId30"/>
+    <sheet name="Reference programs" sheetId="44" r:id="rId31"/>
+    <sheet name="Programs to include" sheetId="45" r:id="rId32"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId33"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="FPCov">'[1]Programs cost and coverage'!$B$6</definedName>
+    <definedName name="FPunmetNeed">'[1]Baseline year demographics'!$C$11</definedName>
+    <definedName name="FracEatingWheat">'[1]Baseline year demographics'!$C$27</definedName>
+    <definedName name="FracEatMaize">'[1]Baseline year demographics'!$C$28</definedName>
+    <definedName name="FracEatRice">'[1]Baseline year demographics'!$C$26</definedName>
+    <definedName name="FracPoor">'[1]Baseline year demographics'!$C$7</definedName>
+    <definedName name="FracRiskMalaria">'[1]Baseline year demographics'!$C$8</definedName>
+    <definedName name="FracSchoolAttendance">'[1]Baseline year demographics'!$C$6</definedName>
+    <definedName name="NumNonPW">'[1]Baseline year demographics'!$C$38:$C$41</definedName>
+    <definedName name="NumPW">'[1]Baseline year demographics'!$C$5</definedName>
+    <definedName name="PWDist">'[1]Baseline year demographics'!$C$50:$C$53</definedName>
+    <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
+    <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -58,12 +77,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Janka Petravic</author>
-    <author>Rowan</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{6681223C-7B9E-2B4A-931C-5522E229014F}">
       <text>
         <r>
           <rPr>
@@ -92,11 +108,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>not sure this is needed anymore</t>
+          <t>Ensures that the 'current spending' value is equal to this.</t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{FED5D67A-03E8-ED44-8F2A-9F2553AD861C}">
       <text>
         <r>
           <rPr>
@@ -125,348 +141,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>fraction of women with secondary education</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:
-National poverty lines; for WDI poverty line it is 0.466_x000D_
-_x000D_
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>per 1,000 live births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Fraction of pregnancies ending in spontaneous abortion</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Number of stillbirths per 1000 TOTAL births</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
-UN IA GCME estimate: 18.8</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST:  35.2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-GCME estimate from LiST: 48.7</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TDHS 2015-16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Guesses</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Should add up to 1</t>
+          <t>Total funds that are available for program allocation</t>
         </r>
       </text>
     </comment>
@@ -478,9 +153,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -500,7 +177,259 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
+May not need these beyond calculation below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST: 1.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had these in the params documentation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This assumes we deliver PPCF with education to the poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This should be changed later I guess</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Assumed same as stunting</t>
         </r>
       </text>
     </comment>
@@ -514,7 +443,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -534,26 +463,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If user wants this, it must be checked for </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>all populations</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> b/c they are all targetted at once.</t>
+We currently do not have 'appropriate complementary feeding' data to use, so this does nothing.</t>
         </r>
       </text>
     </comment>
@@ -565,16 +475,15 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -583,87 +492,31 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.5*unit cost of BFP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Cost of BF + CFE for Tanzania</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
-      <text>
+If user wants this, it must be checked for </t>
+        </r>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>all populations</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Totally fictional</t>
+          <t xml:space="preserve"> b/c they are all targetted at once.</t>
         </r>
       </text>
     </comment>
@@ -674,124 +527,28 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
-    <author>Microsoft Office User</author>
+    <author>Sam</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Poor pregnant women - all target population</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-% at risk from malaria</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
-      <text>
-        <r>
-          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
+          </rPr>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -799,11 +556,77 @@
         <r>
           <rPr>
             <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>% at risk from malaria</t>
+          </rPr>
+          <t>1.5*unit cost of BFP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Cost of BF + CFE for Tanzania</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Totally fictional</t>
         </r>
       </text>
     </comment>
@@ -816,10 +639,9 @@
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
-    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -839,57 +661,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+Poor pregnant women - all target population</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Microsoft Office User: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This RR is from the book.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
+    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -899,9 +675,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -911,11 +685,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
+    <comment ref="D13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -925,9 +699,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -937,11 +709,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
+    <comment ref="C15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -951,9 +723,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
@@ -963,488 +733,40 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+% at risk from malaria</t>
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000005000000}">
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
+        <r>
+          <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User: 
-This RR is from the book.
-LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Source: WHO guidelines on sprinkles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Effect on iron-deficiency anemia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only in malaria risk</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made this number up
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Same effect as iron fortification</t>
+            <scheme val="minor"/>
+          </rPr>
+          <t>% at risk from malaria</t>
         </r>
       </text>
     </comment>
@@ -1455,44 +777,82 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Microsoft Office User</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Microsoft Office User: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
             <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This RR is from the book.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Used RR from params and AF above</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1502,7 +862,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1512,44 +874,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Probably can delete</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +888,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1569,11 +900,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-WHO statement</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1583,7 +914,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1593,11 +926,35 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1607,7 +964,9 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
@@ -1617,73 +976,438 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>frac zinc deficient</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Sam:</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
         </r>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
-        <r>
-          <rPr>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>frac zinc deficient</t>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000012000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User: 
+This RR is from the book.
+LiST uses RR=0.63 for all-cause ; RR=0.33  for IDA</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000013000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Source: WHO guidelines on sprinkles</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000014000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000015000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Effect on iron-deficiency anemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000016000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Only in malaria risk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1000-000017000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+made this number up
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1000-000018000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
         </r>
       </text>
     </comment>
@@ -1694,30 +1418,235 @@
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Ruth</author>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Used RR from params and AF above</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ruth made these numbers up</t>
+Probably can delete</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick had RR in params doc, I fixed AF and solved for Eff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1200-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WHO statement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D46" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1200-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>frac zinc deficient</t>
         </r>
       </text>
     </comment>
@@ -1728,11 +1657,10 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1742,7 +1670,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1752,33 +1680,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
- this age
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ruth:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-made numbers up for effectiveness</t>
+Ruth made these numbers up</t>
         </r>
       </text>
     </comment>
@@ -1789,84 +1691,11 @@
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
     <author xml:space="preserve"> Janka Petravic</author>
+    <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac poor
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fraction poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Frac food insecure</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1886,11 +1715,13 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+assume target pop is WRA &lt;18 years, then this is just  birth age distribution for
+ this age
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
+    <comment ref="C3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1731,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+          <t>Ruth:</t>
         </r>
         <r>
           <rPr>
@@ -1910,65 +1741,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Coverage of these interventions is mutually exclusive</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Exposed to malaria
-</t>
+made numbers up for effectiveness</t>
         </r>
       </text>
     </comment>
@@ -1980,11 +1753,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
-    <author>Microsoft Office User</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2004,11 +1776,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one intervention cannot exceed 1-cov of another</t>
+Frac poor
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2028,11 +1801,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-When one program cannot exceed cov of another</t>
+Fraction poor</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -2042,7 +1815,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Microsoft Office User:</t>
+          <t>Sam:</t>
         </r>
         <r>
           <rPr>
@@ -2052,11 +1825,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Same effect as iron fortification</t>
+Frac food insecure</t>
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+    <comment ref="B19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -2076,11 +1849,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+    <comment ref="B20" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -2100,11 +1873,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-There is no unit cost for this to impact the budget.</t>
+Also brestfeeding women up to 6 months?</t>
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+    <comment ref="A22" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -2124,31 +1897,41 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Also brestfeeding women up to 6 months?</t>
+Coverage of these interventions is mutually exclusive</t>
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+    <comment ref="B49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1600-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Exposed to malaria
+</t>
         </r>
       </text>
     </comment>
@@ -2159,10 +1942,194 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
+    <author>Janka Petravic</author>
+    <author>Rowan</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>not sure this is needed anymore</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fraction of women with secondary education</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction food insecure in the target population (here the lowest 2 wealth quintiles)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:
+National poverty lines; for WDI poverty line it is 0.466_x000D_
+_x000D_
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>per 1,000 live births</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fraction of pregnancies ending in spontaneous abortion</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -2182,11 +2149,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+Number of stillbirths per 1000 TOTAL births</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -2206,11 +2173,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+LiST has lower values for all mortalities based on UN Inter-Agency Group for child mortality estimation.
+UN IA GCME estimate: 18.8</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C22" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2230,7 +2198,160 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-calculated</t>
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GCME estimate from LiST:  35.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GCME estimate from LiST: 48.7</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TDHS 2015-16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Guesses</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A52" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Should add up to 1</t>
         </r>
       </text>
     </comment>
@@ -2239,6 +2360,186 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+    <author>Microsoft Office User</author>
+    <author xml:space="preserve"> Janka Petravic</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one intervention cannot exceed 1-cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1800-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+When one program cannot exceed cov of another</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-1800-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Same effect as iron fortification</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+There is no unit cost for this to impact the budget.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Also brestfeeding women up to 6 months?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-1800-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mutually exclusive with AMS, target = 1 - coverage of AMS - pregnant at risk of malaria not receiving IPTp or bednets</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ruth</author>
@@ -3034,51 +3335,6 @@
             <family val="2"/>
           </rPr>
           <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Sam</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <i/>
-            <sz val="12"/>
-            <color rgb="FF7F7F7F"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="12"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This is the calibration year and uses baseline coverage.</t>
         </r>
       </text>
     </comment>
@@ -3092,6 +3348,51 @@
     <author>Sam</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1C00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="12"/>
+            <color rgb="FF7F7F7F"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is the calibration year and uses baseline coverage.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Sam</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1D00-000001000000}">
       <text>
         <r>
@@ -3123,30 +3424,78 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+calculated</t>
         </r>
       </text>
     </comment>
@@ -3157,222 +3506,30 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST has higher values 'recalculated across countries for consistency'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 13.56</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 7.11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 5.47</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.97</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 4.01</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 2.84</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 1.49</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST 0.79</t>
+We don't model deaths through severe diarrhoea specifically, only deaths through diarrhoea</t>
         </r>
       </text>
     </comment>
@@ -3384,10 +3541,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author xml:space="preserve"> Janka Petravic</author>
-    <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3407,40 +3563,199 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST &amp; DHS</t>
+LiST has higher values 'recalculated across countries for consistency'</t>
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
+LiST 13.56</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 7.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 5.47</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.97</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 4.01</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 2.84</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 1.49</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST 0.79</t>
         </r>
       </text>
     </comment>
@@ -3451,93 +3766,35 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author xml:space="preserve"> Janka Petravic</author>
     <author>Sam</author>
-    <author>Nick</author>
-    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Calibri"/>
+            <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Using prevalence of iron-deficient anaemia</t>
+LiST &amp; DHS</t>
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -3566,217 +3823,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>Fictional</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Stevens: 42% of global childhood anemia is ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-LiST, includes mild</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-DHS</t>
+          <t>From Jakub's book, annual incidence of severe acute wasting is annual prevalence * 2.6  (p. 147). Assuming the same to be true for moderate wasting.</t>
         </r>
       </text>
     </comment>
@@ -3787,10 +3834,207 @@
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Sam</author>
     <author>Nick</author>
+    <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Using prevalence of iron-deficient anaemia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fictional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stevens: 42% of global childhood anemia is ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L6" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Janka Petravic:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LiST, includes mild</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -3810,7 +4054,112 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST</t>
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DHS</t>
         </r>
       </text>
     </comment>
@@ -3821,54 +4170,30 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author xml:space="preserve"> Janka Petravic</author>
+    <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Arial"/>
+            <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Kozuki 2012, for hematocrit &lt;90g/L</t>
+LiST</t>
         </r>
       </text>
     </comment>
@@ -3879,36 +4204,10 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Sam</author>
-    <author>Janka Petravic</author>
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-May not need these beyond calculation below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3918,7 +4217,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Janka Petravic:</t>
+          <t xml:space="preserve"> Janka Petravic:</t>
         </r>
         <r>
           <rPr>
@@ -3928,158 +4227,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-LiST: 1.11</t>
+Term AGA should be given by a formula in the spreadsheet. The result should be greyed to indicate that it is calculated.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This calculation 'dilutes' OR so that we cover 'everyone' with IYCF, not just frac poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick had these in the params documentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>This assumes we deliver PPCF with education to the poor</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -4099,64 +4251,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B19" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Janka Petravic:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-This should be changed later I guess</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Assumed same as stunting</t>
+Kozuki 2012, for hematocrit &lt;90g/L</t>
         </r>
       </text>
     </comment>
@@ -4165,7 +4260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -4979,6 +5074,15 @@
   <si>
     <t>under 5</t>
   </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Current expenditure</t>
+  </si>
+  <si>
+    <t>Available budget</t>
+  </si>
 </sst>
 </file>
 
@@ -5442,7 +5546,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="739">
+  <cellStyleXfs count="740">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6182,8 +6286,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6426,8 +6531,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="739">
+  <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -7166,6 +7275,7 @@
     <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="739" xr:uid="{35C04AEC-C9A8-6741-A33A-8FEE09C24826}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8261,6 +8371,210 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Baseline year demographics"/>
+      <sheetName val="Demographic projections"/>
+      <sheetName val="Annual prevalence"/>
+      <sheetName val="Causes of death"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="Prevalence of anaemia"/>
+      <sheetName val="Distributions"/>
+      <sheetName val="Distribution births"/>
+      <sheetName val="Birth outcomes &amp; risks"/>
+      <sheetName val="IYCF packages"/>
+      <sheetName val="IYCF cost &amp; coverage"/>
+      <sheetName val="Programs to include"/>
+      <sheetName val="Program dependencies"/>
+      <sheetName val="Programs annual scale-up"/>
+      <sheetName val="Programs annual spending"/>
+      <sheetName val="Reference programs"/>
+      <sheetName val="Programs cost and coverage"/>
+      <sheetName val="Expenditure &amp; budget"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="IYCF package odds ratios"/>
+      <sheetName val="Relative risks"/>
+      <sheetName val="Odds ratios"/>
+      <sheetName val="Programs birth outcomes"/>
+      <sheetName val="Programs anaemia"/>
+      <sheetName val="Programs wasting"/>
+      <sheetName val="Programs for children"/>
+      <sheetName val="Programs family planning"/>
+      <sheetName val="Programs for PW"/>
+      <sheetName val="Programs birth age"/>
+      <sheetName val="Programs target population"/>
+      <sheetName val="Programs impacted population"/>
+      <sheetName val="Program risk areas"/>
+      <sheetName val="Population risk areas"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3677298.8269880489</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>0.35199999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>8634000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>13550000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>12394000</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>9148000</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>7531583.5695012193</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>11617337.925466225</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>11797902.113393042</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>9101877.564651465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>1102416.4304987811</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>1932662.074533775</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>596097.88660695858</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>46122.435348534098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>0.29978973218277538</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>0.52556568434139284</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>0.16210210664201097</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>1.2542476833820825E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8582,426 +8896,612 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F272357D-698B-8A45-8D43-580D19029069}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="153"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="152" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="152" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="152" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="155">
+        <v>641061.65625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="152" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="154"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="133">
-        <v>417036.38721313374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="133">
-        <v>69337.100824139532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="134" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="133">
-        <v>81525.625255872015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="96">
-        <v>0.16600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.12999999523162842</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="22">
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C14" s="23">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B15" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="48">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="129"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="90" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="13">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="C1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="149">
+        <f>1-D2-E2-F2</f>
+        <v>0.73476162790697663</v>
+      </c>
+      <c r="D2" s="150">
+        <v>0.15439970930232561</v>
+      </c>
+      <c r="E2" s="150">
+        <v>9.3027034883720952E-2</v>
+      </c>
+      <c r="F2" s="150">
+        <v>1.7811627906976747E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="11">
+        <v>1.53</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1.32</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1</v>
+      </c>
+      <c r="D7" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F7" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1</v>
+      </c>
+      <c r="D8" s="36">
+        <v>2.52</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1.96</v>
+      </c>
+      <c r="F8" s="36">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.39</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>999.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="90" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="13">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="13">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="13"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="18"/>
-      <c r="C32" s="95"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="26">
-        <v>85190.242678659823</v>
-      </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="26">
-        <v>136942.96658663196</v>
-      </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="26">
-        <v>96512.695693856571</v>
-      </c>
-      <c r="D36" s="92"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="26">
-        <v>60344.755395551001</v>
-      </c>
-      <c r="D37" s="92"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="91"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="92"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="91"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="92"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B40" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="131">
-        <f>C34-C46</f>
-        <v>74832.800393986952</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="93"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="131">
-        <f t="shared" ref="C41:C43" si="0">C35-C47</f>
-        <v>100064.19481544828</v>
-      </c>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="131">
-        <f t="shared" si="0"/>
-        <v>69285.176960663506</v>
-      </c>
-      <c r="D42" s="92"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="131">
-        <f t="shared" si="0"/>
-        <v>53282.862928728595</v>
-      </c>
-      <c r="D43" s="92"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="91"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="92"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="91"/>
-      <c r="C45" s="25"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="132">
-        <f>C52*C$6</f>
-        <v>10357.442284672865</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="132">
-        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
-        <v>36878.771771183681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="132">
-        <f t="shared" si="1"/>
-        <v>27227.518733193061</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="132">
-        <f t="shared" si="1"/>
-        <v>7061.8924668224072</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="22">
-        <v>0.12704523580365737</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="22">
-        <v>0.4523580365736285</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="22">
-        <v>0.33397497593840231</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="22">
-        <v>8.662175168431184E-2</v>
-      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="68">
+        <v>1</v>
+      </c>
+      <c r="D23" s="68">
+        <v>1.52</v>
+      </c>
+      <c r="E23" s="68">
+        <v>1.75</v>
+      </c>
+      <c r="F23" s="68">
+        <v>3.14</v>
+      </c>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="68">
+        <v>1</v>
+      </c>
+      <c r="D24" s="68">
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="68">
+        <v>1.4</v>
+      </c>
+      <c r="F24" s="68">
+        <v>1.6</v>
+      </c>
+      <c r="G24" s="69"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="68">
+        <v>1</v>
+      </c>
+      <c r="D25" s="68">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="68">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="68">
+        <v>1.6</v>
+      </c>
+      <c r="G25" s="69"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="68">
+        <v>1</v>
+      </c>
+      <c r="D26" s="68">
+        <v>1.52</v>
+      </c>
+      <c r="E26" s="68">
+        <v>1.75</v>
+      </c>
+      <c r="F26" s="68">
+        <v>1.73</v>
+      </c>
+      <c r="G26" s="69"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="68">
+        <v>1</v>
+      </c>
+      <c r="D27" s="68">
+        <v>1</v>
+      </c>
+      <c r="E27" s="68">
+        <v>1</v>
+      </c>
+      <c r="F27" s="68">
+        <v>1</v>
+      </c>
+      <c r="G27" s="69"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="68">
+        <v>1</v>
+      </c>
+      <c r="D28" s="68">
+        <v>1</v>
+      </c>
+      <c r="E28" s="68">
+        <v>1</v>
+      </c>
+      <c r="F28" s="68">
+        <v>1</v>
+      </c>
+      <c r="G28" s="69"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="68">
+        <v>1</v>
+      </c>
+      <c r="D29" s="68">
+        <v>1.52</v>
+      </c>
+      <c r="E29" s="68">
+        <v>1.75</v>
+      </c>
+      <c r="F29" s="68">
+        <v>1.52</v>
+      </c>
+      <c r="G29" s="69"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="68">
+        <v>1</v>
+      </c>
+      <c r="D30" s="68">
+        <v>1</v>
+      </c>
+      <c r="E30" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="F30" s="68">
+        <v>1</v>
+      </c>
+      <c r="G30" s="69"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="68">
+        <v>1</v>
+      </c>
+      <c r="D31" s="68">
+        <v>1</v>
+      </c>
+      <c r="E31" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="F31" s="68">
+        <v>1</v>
+      </c>
+      <c r="G31" s="69"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="64"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="69"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="68">
+        <v>1</v>
+      </c>
+      <c r="D35" s="71">
+        <v>1</v>
+      </c>
+      <c r="E35" s="71">
+        <v>1</v>
+      </c>
+      <c r="F35" s="71">
+        <v>1</v>
+      </c>
+      <c r="G35" s="69"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="68">
+        <v>1</v>
+      </c>
+      <c r="D36" s="71">
+        <v>1.41</v>
+      </c>
+      <c r="E36" s="71">
+        <v>1.49</v>
+      </c>
+      <c r="F36" s="71">
+        <v>3.03</v>
+      </c>
+      <c r="G36" s="69"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="68">
+        <v>1</v>
+      </c>
+      <c r="D37" s="71">
+        <v>1.18</v>
+      </c>
+      <c r="E37" s="71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F37" s="71">
+        <v>1.77</v>
+      </c>
+      <c r="G37" s="69"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="68">
+        <v>1</v>
+      </c>
+      <c r="D38" s="71">
+        <v>1</v>
+      </c>
+      <c r="E38" s="71">
+        <v>1</v>
+      </c>
+      <c r="F38" s="71">
+        <v>1</v>
+      </c>
+      <c r="G38" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9015,7 +9515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13076,7 +13576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -13506,7 +14006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
@@ -14612,11 +15112,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14627,6 +15122,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -14638,7 +15138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -14858,7 +15358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -15055,7 +15555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -15138,7 +15638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15451,7 +15951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16783,7 +17283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16879,7 +17379,441 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="133">
+        <v>417036.38721313374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="133">
+        <v>69337.100824139532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="133">
+        <v>81525.625255872015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="96">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.12999999523162842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="129"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" s="13">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="13">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18"/>
+      <c r="C32" s="95"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="26">
+        <v>85190.242678659823</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="26">
+        <v>136942.96658663196</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="26">
+        <v>96512.695693856571</v>
+      </c>
+      <c r="D36" s="92"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="26">
+        <v>60344.755395551001</v>
+      </c>
+      <c r="D37" s="92"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="91"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="92"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="91"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="92"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="131">
+        <f>C34-C46</f>
+        <v>74832.800393986952</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="131">
+        <f t="shared" ref="C41:C43" si="0">C35-C47</f>
+        <v>100064.19481544828</v>
+      </c>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="131">
+        <f t="shared" si="0"/>
+        <v>69285.176960663506</v>
+      </c>
+      <c r="D42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="131">
+        <f t="shared" si="0"/>
+        <v>53282.862928728595</v>
+      </c>
+      <c r="D43" s="92"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="91"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="92"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="91"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="132">
+        <f>C52*C$6</f>
+        <v>10357.442284672865</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="132">
+        <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
+        <v>36878.771771183681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="132">
+        <f t="shared" si="1"/>
+        <v>27227.518733193061</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="132">
+        <f t="shared" si="1"/>
+        <v>7061.8924668224072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22">
+        <v>0.12704523580365737</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="22">
+        <v>0.4523580365736285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="22">
+        <v>0.33397497593840231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22">
+        <v>8.662175168431184E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18106,605 +19040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="B2" s="81">
-        <v>70676.981999999989</v>
-      </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="14">
-        <v>85190.242678659823</v>
-      </c>
-      <c r="E2" s="14">
-        <v>136942.96658663196</v>
-      </c>
-      <c r="F2" s="14">
-        <v>96512.695693856571</v>
-      </c>
-      <c r="G2" s="14">
-        <v>60344.755395551001</v>
-      </c>
-      <c r="H2" s="136">
-        <f>D2+E2+F2+G2</f>
-        <v>378990.66035469936</v>
-      </c>
-      <c r="I2" s="137">
-        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
-        <v>83351.709702892942</v>
-      </c>
-      <c r="J2" s="138">
-        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
-        <v>0.22478190517658095</v>
-      </c>
-      <c r="K2" s="136">
-        <f>H2-I2</f>
-        <v>295638.95065180643</v>
-      </c>
-      <c r="L2" s="135"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="81">
-        <v>72016.829999999987</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="14">
-        <v>88873.174223262322</v>
-      </c>
-      <c r="E3" s="14">
-        <v>140878.76792079693</v>
-      </c>
-      <c r="F3" s="14">
-        <v>99941.640844206719</v>
-      </c>
-      <c r="G3" s="14">
-        <v>63334.31770121822</v>
-      </c>
-      <c r="H3" s="136">
-        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
-        <v>393027.9006894842</v>
-      </c>
-      <c r="I3" s="137">
-        <f t="shared" si="0"/>
-        <v>84931.83690105204</v>
-      </c>
-      <c r="J3" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22612433892696462</v>
-      </c>
-      <c r="K3" s="136">
-        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
-        <v>308096.06378843216</v>
-      </c>
-      <c r="L3" s="135"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B4" s="81">
-        <v>73691.64</v>
-      </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="14">
-        <v>92715.325701224938</v>
-      </c>
-      <c r="E4" s="14">
-        <v>144927.68592336867</v>
-      </c>
-      <c r="F4" s="14">
-        <v>103492.41105352533</v>
-      </c>
-      <c r="G4" s="14">
-        <v>66471.98704155453</v>
-      </c>
-      <c r="H4" s="136">
-        <f t="shared" si="2"/>
-        <v>407607.40971967345</v>
-      </c>
-      <c r="I4" s="137">
-        <f t="shared" si="0"/>
-        <v>86906.995898750945</v>
-      </c>
-      <c r="J4" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22746231665658057</v>
-      </c>
-      <c r="K4" s="136">
-        <f t="shared" si="3"/>
-        <v>320700.41382092249</v>
-      </c>
-      <c r="L4" s="135"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>2020</v>
-      </c>
-      <c r="B5" s="81">
-        <v>75031.487999999998</v>
-      </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="14">
-        <v>96723.58048435954</v>
-      </c>
-      <c r="E5" s="14">
-        <v>149092.97161734983</v>
-      </c>
-      <c r="F5" s="14">
-        <v>107169.33457564613</v>
-      </c>
-      <c r="G5" s="14">
-        <v>69765.100843071108</v>
-      </c>
-      <c r="H5" s="136">
-        <f t="shared" si="2"/>
-        <v>422750.98752042663</v>
-      </c>
-      <c r="I5" s="137">
-        <f t="shared" si="0"/>
-        <v>88487.123096910043</v>
-      </c>
-      <c r="J5" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22879563463985053</v>
-      </c>
-      <c r="K5" s="136">
-        <f t="shared" si="3"/>
-        <v>334263.86442351656</v>
-      </c>
-      <c r="L5" s="135"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B6" s="81">
-        <v>76371.335999999996</v>
-      </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="14">
-        <v>99737.485157640069</v>
-      </c>
-      <c r="E6" s="14">
-        <v>154491.98622622955</v>
-      </c>
-      <c r="F6" s="14">
-        <v>110633.84554936894</v>
-      </c>
-      <c r="G6" s="14">
-        <v>72853.641552087298</v>
-      </c>
-      <c r="H6" s="136">
-        <f t="shared" si="2"/>
-        <v>437716.9584853258</v>
-      </c>
-      <c r="I6" s="137">
-        <f t="shared" si="0"/>
-        <v>90067.250295069156</v>
-      </c>
-      <c r="J6" s="138">
-        <f t="shared" si="1"/>
-        <v>0.2278583985020167</v>
-      </c>
-      <c r="K6" s="136">
-        <f t="shared" si="3"/>
-        <v>347649.70819025661</v>
-      </c>
-      <c r="L6" s="135"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="81">
-        <v>78046.145999999993</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="14">
-        <v>102845.30303527195</v>
-      </c>
-      <c r="E7" s="14">
-        <v>160086.51212199748</v>
-      </c>
-      <c r="F7" s="14">
-        <v>114210.35531765898</v>
-      </c>
-      <c r="G7" s="14">
-        <v>76078.913715598304</v>
-      </c>
-      <c r="H7" s="136">
-        <f t="shared" si="2"/>
-        <v>453221.08419052669</v>
-      </c>
-      <c r="I7" s="137">
-        <f t="shared" si="0"/>
-        <v>92042.409292768032</v>
-      </c>
-      <c r="J7" s="138">
-        <f t="shared" si="1"/>
-        <v>0.2269208265519207</v>
-      </c>
-      <c r="K7" s="136">
-        <f t="shared" si="3"/>
-        <v>361178.67489775864</v>
-      </c>
-      <c r="L7" s="135"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="81">
-        <v>79720.955999999991</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="14">
-        <v>106049.96045066901</v>
-      </c>
-      <c r="E8" s="14">
-        <v>165883.62923795069</v>
-      </c>
-      <c r="F8" s="14">
-        <v>117902.48451560146</v>
-      </c>
-      <c r="G8" s="14">
-        <v>79446.970512891567</v>
-      </c>
-      <c r="H8" s="136">
-        <f t="shared" si="2"/>
-        <v>469283.04471711279</v>
-      </c>
-      <c r="I8" s="137">
-        <f t="shared" si="0"/>
-        <v>94017.568290466923</v>
-      </c>
-      <c r="J8" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22598293640588846</v>
-      </c>
-      <c r="K8" s="136">
-        <f t="shared" si="3"/>
-        <v>375265.47642664588</v>
-      </c>
-      <c r="L8" s="135"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="81">
-        <v>81060.803999999989</v>
-      </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="14">
-        <v>109354.4749217309</v>
-      </c>
-      <c r="E9" s="14">
-        <v>171890.67388877622</v>
-      </c>
-      <c r="F9" s="14">
-        <v>121713.97082417007</v>
-      </c>
-      <c r="G9" s="14">
-        <v>82964.133100945706</v>
-      </c>
-      <c r="H9" s="136">
-        <f t="shared" si="2"/>
-        <v>485923.25273562293</v>
-      </c>
-      <c r="I9" s="137">
-        <f t="shared" si="0"/>
-        <v>95597.695488626021</v>
-      </c>
-      <c r="J9" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22504474586489395</v>
-      </c>
-      <c r="K9" s="136">
-        <f t="shared" si="3"/>
-        <v>390325.5572469969</v>
-      </c>
-      <c r="L9" s="135"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>2025</v>
-      </c>
-      <c r="B10" s="81">
-        <v>83070.575999999986</v>
-      </c>
-      <c r="C10" s="135"/>
-      <c r="D10" s="14">
-        <v>112761.95799214966</v>
-      </c>
-      <c r="E10" s="14">
-        <v>178115.24805473702</v>
-      </c>
-      <c r="F10" s="14">
-        <v>125648.67275402174</v>
-      </c>
-      <c r="G10" s="14">
-        <v>86637.002477955393</v>
-      </c>
-      <c r="H10" s="136">
-        <f t="shared" si="2"/>
-        <v>503162.88127886388</v>
-      </c>
-      <c r="I10" s="137">
-        <f t="shared" si="0"/>
-        <v>97967.886285864675</v>
-      </c>
-      <c r="J10" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22410627291414709</v>
-      </c>
-      <c r="K10" s="136">
-        <f t="shared" si="3"/>
-        <v>405194.99499299919</v>
-      </c>
-      <c r="L10" s="135"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2026</v>
-      </c>
-      <c r="B11" s="81">
-        <v>84745.385999999999</v>
-      </c>
-      <c r="C11" s="135"/>
-      <c r="D11" s="14">
-        <v>116157.56294877882</v>
-      </c>
-      <c r="E11" s="14">
-        <v>184743.60653041795</v>
-      </c>
-      <c r="F11" s="14">
-        <v>129391.41181767183</v>
-      </c>
-      <c r="G11" s="14">
-        <v>89840.202310273409</v>
-      </c>
-      <c r="H11" s="136">
-        <f t="shared" si="2"/>
-        <v>520132.78360714205</v>
-      </c>
-      <c r="I11" s="137">
-        <f t="shared" si="0"/>
-        <v>99943.045283563595</v>
-      </c>
-      <c r="J11" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22332290255426968</v>
-      </c>
-      <c r="K11" s="136">
-        <f t="shared" si="3"/>
-        <v>420189.73832357844</v>
-      </c>
-      <c r="L11" s="135"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>2027</v>
-      </c>
-      <c r="B12" s="81">
-        <v>86420.195999999996</v>
-      </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="14">
-        <v>119655.41988140052</v>
-      </c>
-      <c r="E12" s="14">
-        <v>191618.63190610864</v>
-      </c>
-      <c r="F12" s="14">
-        <v>133245.63710231843</v>
-      </c>
-      <c r="G12" s="14">
-        <v>93161.832938582695</v>
-      </c>
-      <c r="H12" s="136">
-        <f t="shared" si="2"/>
-        <v>537681.52182841022</v>
-      </c>
-      <c r="I12" s="137">
-        <f t="shared" si="0"/>
-        <v>101918.20428126247</v>
-      </c>
-      <c r="J12" s="138">
-        <f t="shared" si="1"/>
-        <v>0.2225395797023243</v>
-      </c>
-      <c r="K12" s="136">
-        <f t="shared" si="3"/>
-        <v>435763.31754714774</v>
-      </c>
-      <c r="L12" s="135"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>2028</v>
-      </c>
-      <c r="B13" s="81">
-        <v>88095.005999999994</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="14">
-        <v>123258.60790749983</v>
-      </c>
-      <c r="E13" s="14">
-        <v>198749.5036128528</v>
-      </c>
-      <c r="F13" s="14">
-        <v>137214.66948533521</v>
-      </c>
-      <c r="G13" s="14">
-        <v>96606.273063611705</v>
-      </c>
-      <c r="H13" s="136">
-        <f t="shared" si="2"/>
-        <v>555829.0540692996</v>
-      </c>
-      <c r="I13" s="137">
-        <f t="shared" si="0"/>
-        <v>103893.36327896136</v>
-      </c>
-      <c r="J13" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22175632418835775</v>
-      </c>
-      <c r="K13" s="136">
-        <f t="shared" si="3"/>
-        <v>451935.69079033821</v>
-      </c>
-      <c r="L13" s="135"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>2029</v>
-      </c>
-      <c r="B14" s="81">
-        <v>90104.777999999991</v>
-      </c>
-      <c r="C14" s="135"/>
-      <c r="D14" s="14">
-        <v>126970.29886613904</v>
-      </c>
-      <c r="E14" s="14">
-        <v>206145.74268388833</v>
-      </c>
-      <c r="F14" s="14">
-        <v>141301.92876418153</v>
-      </c>
-      <c r="G14" s="14">
-        <v>100178.06327827164</v>
-      </c>
-      <c r="H14" s="136">
-        <f t="shared" si="2"/>
-        <v>574596.03359248047</v>
-      </c>
-      <c r="I14" s="137">
-        <f t="shared" si="0"/>
-        <v>106263.55407620002</v>
-      </c>
-      <c r="J14" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22097315582270433</v>
-      </c>
-      <c r="K14" s="136">
-        <f t="shared" si="3"/>
-        <v>468332.47951628047</v>
-      </c>
-      <c r="L14" s="135"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>2030</v>
-      </c>
-      <c r="B15" s="81">
-        <v>91779.587999999989</v>
-      </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="14">
-        <v>130793.7601100859</v>
-      </c>
-      <c r="E15" s="14">
-        <v>213817.22446698855</v>
-      </c>
-      <c r="F15" s="14">
-        <v>145510.93660296808</v>
-      </c>
-      <c r="G15" s="14">
-        <v>103881.91205323998</v>
-      </c>
-      <c r="H15" s="136">
-        <f t="shared" si="2"/>
-        <v>594003.83323328255</v>
-      </c>
-      <c r="I15" s="137">
-        <f t="shared" si="0"/>
-        <v>108238.71307389889</v>
-      </c>
-      <c r="J15" s="138">
-        <f t="shared" si="1"/>
-        <v>0.22019009439408685</v>
-      </c>
-      <c r="K15" s="136">
-        <f t="shared" si="3"/>
-        <v>485765.12015938363</v>
-      </c>
-      <c r="L15" s="135"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -18871,7 +19207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19053,7 +19389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -19139,7 +19475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
@@ -21538,7 +21874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
@@ -23960,7 +24296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
@@ -24213,7 +24549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
@@ -24754,7 +25090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
@@ -25054,11 +25390,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
@@ -25801,7 +26137,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="81">
+        <v>70676.981999999989</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="14">
+        <v>85190.242678659823</v>
+      </c>
+      <c r="E2" s="14">
+        <v>136942.96658663196</v>
+      </c>
+      <c r="F2" s="14">
+        <v>96512.695693856571</v>
+      </c>
+      <c r="G2" s="14">
+        <v>60344.755395551001</v>
+      </c>
+      <c r="H2" s="136">
+        <f>D2+E2+F2+G2</f>
+        <v>378990.66035469936</v>
+      </c>
+      <c r="I2" s="137">
+        <f t="shared" ref="I2:I15" si="0">(B2 + 25.36*B2/(1000-25.36))/(1-0.13)</f>
+        <v>83351.709702892942</v>
+      </c>
+      <c r="J2" s="138">
+        <f t="shared" ref="J2:J15" si="1">D2/H2</f>
+        <v>0.22478190517658095</v>
+      </c>
+      <c r="K2" s="136">
+        <f>H2-I2</f>
+        <v>295638.95065180643</v>
+      </c>
+      <c r="L2" s="135"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="81">
+        <v>72016.829999999987</v>
+      </c>
+      <c r="C3" s="135"/>
+      <c r="D3" s="14">
+        <v>88873.174223262322</v>
+      </c>
+      <c r="E3" s="14">
+        <v>140878.76792079693</v>
+      </c>
+      <c r="F3" s="14">
+        <v>99941.640844206719</v>
+      </c>
+      <c r="G3" s="14">
+        <v>63334.31770121822</v>
+      </c>
+      <c r="H3" s="136">
+        <f t="shared" ref="H3:H15" si="2">D3+E3+F3+G3</f>
+        <v>393027.9006894842</v>
+      </c>
+      <c r="I3" s="137">
+        <f t="shared" si="0"/>
+        <v>84931.83690105204</v>
+      </c>
+      <c r="J3" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22612433892696462</v>
+      </c>
+      <c r="K3" s="136">
+        <f t="shared" ref="K3:K15" si="3">H3-I3</f>
+        <v>308096.06378843216</v>
+      </c>
+      <c r="L3" s="135"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="81">
+        <v>73691.64</v>
+      </c>
+      <c r="C4" s="135"/>
+      <c r="D4" s="14">
+        <v>92715.325701224938</v>
+      </c>
+      <c r="E4" s="14">
+        <v>144927.68592336867</v>
+      </c>
+      <c r="F4" s="14">
+        <v>103492.41105352533</v>
+      </c>
+      <c r="G4" s="14">
+        <v>66471.98704155453</v>
+      </c>
+      <c r="H4" s="136">
+        <f t="shared" si="2"/>
+        <v>407607.40971967345</v>
+      </c>
+      <c r="I4" s="137">
+        <f t="shared" si="0"/>
+        <v>86906.995898750945</v>
+      </c>
+      <c r="J4" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22746231665658057</v>
+      </c>
+      <c r="K4" s="136">
+        <f t="shared" si="3"/>
+        <v>320700.41382092249</v>
+      </c>
+      <c r="L4" s="135"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="81">
+        <v>75031.487999999998</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="14">
+        <v>96723.58048435954</v>
+      </c>
+      <c r="E5" s="14">
+        <v>149092.97161734983</v>
+      </c>
+      <c r="F5" s="14">
+        <v>107169.33457564613</v>
+      </c>
+      <c r="G5" s="14">
+        <v>69765.100843071108</v>
+      </c>
+      <c r="H5" s="136">
+        <f t="shared" si="2"/>
+        <v>422750.98752042663</v>
+      </c>
+      <c r="I5" s="137">
+        <f t="shared" si="0"/>
+        <v>88487.123096910043</v>
+      </c>
+      <c r="J5" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22879563463985053</v>
+      </c>
+      <c r="K5" s="136">
+        <f t="shared" si="3"/>
+        <v>334263.86442351656</v>
+      </c>
+      <c r="L5" s="135"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="81">
+        <v>76371.335999999996</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="14">
+        <v>99737.485157640069</v>
+      </c>
+      <c r="E6" s="14">
+        <v>154491.98622622955</v>
+      </c>
+      <c r="F6" s="14">
+        <v>110633.84554936894</v>
+      </c>
+      <c r="G6" s="14">
+        <v>72853.641552087298</v>
+      </c>
+      <c r="H6" s="136">
+        <f t="shared" si="2"/>
+        <v>437716.9584853258</v>
+      </c>
+      <c r="I6" s="137">
+        <f t="shared" si="0"/>
+        <v>90067.250295069156</v>
+      </c>
+      <c r="J6" s="138">
+        <f t="shared" si="1"/>
+        <v>0.2278583985020167</v>
+      </c>
+      <c r="K6" s="136">
+        <f t="shared" si="3"/>
+        <v>347649.70819025661</v>
+      </c>
+      <c r="L6" s="135"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="81">
+        <v>78046.145999999993</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="14">
+        <v>102845.30303527195</v>
+      </c>
+      <c r="E7" s="14">
+        <v>160086.51212199748</v>
+      </c>
+      <c r="F7" s="14">
+        <v>114210.35531765898</v>
+      </c>
+      <c r="G7" s="14">
+        <v>76078.913715598304</v>
+      </c>
+      <c r="H7" s="136">
+        <f t="shared" si="2"/>
+        <v>453221.08419052669</v>
+      </c>
+      <c r="I7" s="137">
+        <f t="shared" si="0"/>
+        <v>92042.409292768032</v>
+      </c>
+      <c r="J7" s="138">
+        <f t="shared" si="1"/>
+        <v>0.2269208265519207</v>
+      </c>
+      <c r="K7" s="136">
+        <f t="shared" si="3"/>
+        <v>361178.67489775864</v>
+      </c>
+      <c r="L7" s="135"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="81">
+        <v>79720.955999999991</v>
+      </c>
+      <c r="C8" s="135"/>
+      <c r="D8" s="14">
+        <v>106049.96045066901</v>
+      </c>
+      <c r="E8" s="14">
+        <v>165883.62923795069</v>
+      </c>
+      <c r="F8" s="14">
+        <v>117902.48451560146</v>
+      </c>
+      <c r="G8" s="14">
+        <v>79446.970512891567</v>
+      </c>
+      <c r="H8" s="136">
+        <f t="shared" si="2"/>
+        <v>469283.04471711279</v>
+      </c>
+      <c r="I8" s="137">
+        <f t="shared" si="0"/>
+        <v>94017.568290466923</v>
+      </c>
+      <c r="J8" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22598293640588846</v>
+      </c>
+      <c r="K8" s="136">
+        <f t="shared" si="3"/>
+        <v>375265.47642664588</v>
+      </c>
+      <c r="L8" s="135"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="81">
+        <v>81060.803999999989</v>
+      </c>
+      <c r="C9" s="135"/>
+      <c r="D9" s="14">
+        <v>109354.4749217309</v>
+      </c>
+      <c r="E9" s="14">
+        <v>171890.67388877622</v>
+      </c>
+      <c r="F9" s="14">
+        <v>121713.97082417007</v>
+      </c>
+      <c r="G9" s="14">
+        <v>82964.133100945706</v>
+      </c>
+      <c r="H9" s="136">
+        <f t="shared" si="2"/>
+        <v>485923.25273562293</v>
+      </c>
+      <c r="I9" s="137">
+        <f t="shared" si="0"/>
+        <v>95597.695488626021</v>
+      </c>
+      <c r="J9" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22504474586489395</v>
+      </c>
+      <c r="K9" s="136">
+        <f t="shared" si="3"/>
+        <v>390325.5572469969</v>
+      </c>
+      <c r="L9" s="135"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="81">
+        <v>83070.575999999986</v>
+      </c>
+      <c r="C10" s="135"/>
+      <c r="D10" s="14">
+        <v>112761.95799214966</v>
+      </c>
+      <c r="E10" s="14">
+        <v>178115.24805473702</v>
+      </c>
+      <c r="F10" s="14">
+        <v>125648.67275402174</v>
+      </c>
+      <c r="G10" s="14">
+        <v>86637.002477955393</v>
+      </c>
+      <c r="H10" s="136">
+        <f t="shared" si="2"/>
+        <v>503162.88127886388</v>
+      </c>
+      <c r="I10" s="137">
+        <f t="shared" si="0"/>
+        <v>97967.886285864675</v>
+      </c>
+      <c r="J10" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22410627291414709</v>
+      </c>
+      <c r="K10" s="136">
+        <f t="shared" si="3"/>
+        <v>405194.99499299919</v>
+      </c>
+      <c r="L10" s="135"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="81">
+        <v>84745.385999999999</v>
+      </c>
+      <c r="C11" s="135"/>
+      <c r="D11" s="14">
+        <v>116157.56294877882</v>
+      </c>
+      <c r="E11" s="14">
+        <v>184743.60653041795</v>
+      </c>
+      <c r="F11" s="14">
+        <v>129391.41181767183</v>
+      </c>
+      <c r="G11" s="14">
+        <v>89840.202310273409</v>
+      </c>
+      <c r="H11" s="136">
+        <f t="shared" si="2"/>
+        <v>520132.78360714205</v>
+      </c>
+      <c r="I11" s="137">
+        <f t="shared" si="0"/>
+        <v>99943.045283563595</v>
+      </c>
+      <c r="J11" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22332290255426968</v>
+      </c>
+      <c r="K11" s="136">
+        <f t="shared" si="3"/>
+        <v>420189.73832357844</v>
+      </c>
+      <c r="L11" s="135"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>2027</v>
+      </c>
+      <c r="B12" s="81">
+        <v>86420.195999999996</v>
+      </c>
+      <c r="C12" s="135"/>
+      <c r="D12" s="14">
+        <v>119655.41988140052</v>
+      </c>
+      <c r="E12" s="14">
+        <v>191618.63190610864</v>
+      </c>
+      <c r="F12" s="14">
+        <v>133245.63710231843</v>
+      </c>
+      <c r="G12" s="14">
+        <v>93161.832938582695</v>
+      </c>
+      <c r="H12" s="136">
+        <f t="shared" si="2"/>
+        <v>537681.52182841022</v>
+      </c>
+      <c r="I12" s="137">
+        <f t="shared" si="0"/>
+        <v>101918.20428126247</v>
+      </c>
+      <c r="J12" s="138">
+        <f t="shared" si="1"/>
+        <v>0.2225395797023243</v>
+      </c>
+      <c r="K12" s="136">
+        <f t="shared" si="3"/>
+        <v>435763.31754714774</v>
+      </c>
+      <c r="L12" s="135"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>2028</v>
+      </c>
+      <c r="B13" s="81">
+        <v>88095.005999999994</v>
+      </c>
+      <c r="C13" s="135"/>
+      <c r="D13" s="14">
+        <v>123258.60790749983</v>
+      </c>
+      <c r="E13" s="14">
+        <v>198749.5036128528</v>
+      </c>
+      <c r="F13" s="14">
+        <v>137214.66948533521</v>
+      </c>
+      <c r="G13" s="14">
+        <v>96606.273063611705</v>
+      </c>
+      <c r="H13" s="136">
+        <f t="shared" si="2"/>
+        <v>555829.0540692996</v>
+      </c>
+      <c r="I13" s="137">
+        <f t="shared" si="0"/>
+        <v>103893.36327896136</v>
+      </c>
+      <c r="J13" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22175632418835775</v>
+      </c>
+      <c r="K13" s="136">
+        <f t="shared" si="3"/>
+        <v>451935.69079033821</v>
+      </c>
+      <c r="L13" s="135"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>2029</v>
+      </c>
+      <c r="B14" s="81">
+        <v>90104.777999999991</v>
+      </c>
+      <c r="C14" s="135"/>
+      <c r="D14" s="14">
+        <v>126970.29886613904</v>
+      </c>
+      <c r="E14" s="14">
+        <v>206145.74268388833</v>
+      </c>
+      <c r="F14" s="14">
+        <v>141301.92876418153</v>
+      </c>
+      <c r="G14" s="14">
+        <v>100178.06327827164</v>
+      </c>
+      <c r="H14" s="136">
+        <f t="shared" si="2"/>
+        <v>574596.03359248047</v>
+      </c>
+      <c r="I14" s="137">
+        <f t="shared" si="0"/>
+        <v>106263.55407620002</v>
+      </c>
+      <c r="J14" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22097315582270433</v>
+      </c>
+      <c r="K14" s="136">
+        <f t="shared" si="3"/>
+        <v>468332.47951628047</v>
+      </c>
+      <c r="L14" s="135"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>2030</v>
+      </c>
+      <c r="B15" s="81">
+        <v>91779.587999999989</v>
+      </c>
+      <c r="C15" s="135"/>
+      <c r="D15" s="14">
+        <v>130793.7601100859</v>
+      </c>
+      <c r="E15" s="14">
+        <v>213817.22446698855</v>
+      </c>
+      <c r="F15" s="14">
+        <v>145510.93660296808</v>
+      </c>
+      <c r="G15" s="14">
+        <v>103881.91205323998</v>
+      </c>
+      <c r="H15" s="136">
+        <f t="shared" si="2"/>
+        <v>594003.83323328255</v>
+      </c>
+      <c r="I15" s="137">
+        <f t="shared" si="0"/>
+        <v>108238.71307389889</v>
+      </c>
+      <c r="J15" s="138">
+        <f t="shared" si="1"/>
+        <v>0.22019009439408685</v>
+      </c>
+      <c r="K15" s="136">
+        <f t="shared" si="3"/>
+        <v>485765.12015938363</v>
+      </c>
+      <c r="L15" s="135"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
@@ -26881,341 +27815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="10">
-        <v>2010</v>
-      </c>
-      <c r="D1" s="10">
-        <v>2011</v>
-      </c>
-      <c r="E1" s="10">
-        <v>2012</v>
-      </c>
-      <c r="F1" s="10">
-        <v>2013</v>
-      </c>
-      <c r="G1" s="10">
-        <v>2014</v>
-      </c>
-      <c r="H1" s="10">
-        <v>2015</v>
-      </c>
-      <c r="I1" s="10">
-        <v>2016</v>
-      </c>
-      <c r="J1" s="10">
-        <v>2017</v>
-      </c>
-      <c r="K1" s="10">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98">
-        <f>SUM(Distributions!$C$4:$C$5)</f>
-        <v>0.12874709302325582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98">
-        <f>SUM(Distributions!D$4:D$5)</f>
-        <v>0.12874709302325582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98">
-        <f>SUM(Distributions!E$4:E$5)</f>
-        <v>0.18828052325581399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98">
-        <f>SUM(Distributions!F$4:F$5)</f>
-        <v>0.36833284883720935</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98">
-        <f>SUM(Distributions!G$4:G$5)</f>
-        <v>0.38111075581395354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="98">
-        <f>SUM(Distributions!C10:C11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="98">
-        <f>SUM(Distributions!D10:D11)</f>
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="98">
-        <f>SUM(Distributions!E10:E11)</f>
-        <v>7.1500000000000008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="98">
-        <f>SUM(Distributions!F10:F11)</f>
-        <v>5.2500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="98">
-        <f>SUM(Distributions!G10:G11)</f>
-        <v>2.9699999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="98">
-        <f>'Prevalence of anaemia'!C3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="98">
-        <f>'Prevalence of anaemia'!D3</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K16" s="98">
-        <f>'Prevalence of anaemia'!E3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="98">
-        <f>'Prevalence of anaemia'!F3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="98">
-        <f>'Prevalence of anaemia'!G3</f>
-        <v>0.23939999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" s="98">
-        <f>'Prevalence of anaemia'!H3</f>
-        <v>0.318108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K20" s="98">
-        <f>'Prevalence of anaemia'!I3</f>
-        <v>0.318108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K21" s="98">
-        <f>'Prevalence of anaemia'!J3</f>
-        <v>0.318108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="98">
-        <f>'Prevalence of anaemia'!K3</f>
-        <v>0.318108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K23" s="98">
-        <f>'Prevalence of anaemia'!L3</f>
-        <v>0.22722000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K24" s="98">
-        <f>'Prevalence of anaemia'!M3</f>
-        <v>0.22722000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="98">
-        <f>'Prevalence of anaemia'!N3</f>
-        <v>0.22722000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="98">
-        <f>'Prevalence of anaemia'!O3</f>
-        <v>0.22722000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -27281,7 +27881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -27622,6 +28222,340 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="10">
+        <v>2010</v>
+      </c>
+      <c r="D1" s="10">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="10">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="10">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="10">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="10">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="10">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="10">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98">
+        <f>SUM(Distributions!$C$4:$C$5)</f>
+        <v>0.12874709302325582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98">
+        <f>SUM(Distributions!D$4:D$5)</f>
+        <v>0.12874709302325582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98">
+        <f>SUM(Distributions!E$4:E$5)</f>
+        <v>0.18828052325581399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98">
+        <f>SUM(Distributions!F$4:F$5)</f>
+        <v>0.36833284883720935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98">
+        <f>SUM(Distributions!G$4:G$5)</f>
+        <v>0.38111075581395354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="98">
+        <f>SUM(Distributions!C10:C11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="98">
+        <f>SUM(Distributions!D10:D11)</f>
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="98">
+        <f>SUM(Distributions!E10:E11)</f>
+        <v>7.1500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="98">
+        <f>SUM(Distributions!F10:F11)</f>
+        <v>5.2500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="98">
+        <f>SUM(Distributions!G10:G11)</f>
+        <v>2.9699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="98">
+        <f>'Prevalence of anaemia'!C3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="98">
+        <f>'Prevalence of anaemia'!D3</f>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="98">
+        <f>'Prevalence of anaemia'!E3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="98">
+        <f>'Prevalence of anaemia'!F3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="98">
+        <f>'Prevalence of anaemia'!G3</f>
+        <v>0.23939999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="98">
+        <f>'Prevalence of anaemia'!H3</f>
+        <v>0.318108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="98">
+        <f>'Prevalence of anaemia'!I3</f>
+        <v>0.318108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="98">
+        <f>'Prevalence of anaemia'!J3</f>
+        <v>0.318108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="98">
+        <f>'Prevalence of anaemia'!K3</f>
+        <v>0.318108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="98">
+        <f>'Prevalence of anaemia'!L3</f>
+        <v>0.22722000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="98">
+        <f>'Prevalence of anaemia'!M3</f>
+        <v>0.22722000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="98">
+        <f>'Prevalence of anaemia'!N3</f>
+        <v>0.22722000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="98">
+        <f>'Prevalence of anaemia'!O3</f>
+        <v>0.22722000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
@@ -28546,7 +29480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -28864,7 +29798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -29016,7 +29950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -29381,7 +30315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -29529,577 +30463,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="149">
-        <f>1-D2-E2-F2</f>
-        <v>0.73476162790697663</v>
-      </c>
-      <c r="D2" s="150">
-        <v>0.15439970930232561</v>
-      </c>
-      <c r="E2" s="150">
-        <v>9.3027034883720952E-2</v>
-      </c>
-      <c r="F2" s="150">
-        <v>1.7811627906976747E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="11">
-        <v>1.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1.32</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="6">
-        <v>6.4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1</v>
-      </c>
-      <c r="D7" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E7" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F7" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="D8" s="36">
-        <v>2.52</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1.96</v>
-      </c>
-      <c r="F8" s="36">
-        <v>4.1900000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E13" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F13" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.39</v>
-      </c>
-      <c r="F15" s="5">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>999.99</v>
-      </c>
-      <c r="F16" s="5">
-        <v>999.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="68">
-        <v>1</v>
-      </c>
-      <c r="D23" s="68">
-        <v>1.52</v>
-      </c>
-      <c r="E23" s="68">
-        <v>1.75</v>
-      </c>
-      <c r="F23" s="68">
-        <v>3.14</v>
-      </c>
-      <c r="G23" s="69"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="68">
-        <v>1</v>
-      </c>
-      <c r="D24" s="68">
-        <v>1.2</v>
-      </c>
-      <c r="E24" s="68">
-        <v>1.4</v>
-      </c>
-      <c r="F24" s="68">
-        <v>1.6</v>
-      </c>
-      <c r="G24" s="69"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="68">
-        <v>1</v>
-      </c>
-      <c r="D25" s="68">
-        <v>1.2</v>
-      </c>
-      <c r="E25" s="68">
-        <v>1.4</v>
-      </c>
-      <c r="F25" s="68">
-        <v>1.6</v>
-      </c>
-      <c r="G25" s="69"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="66" t="s">
-        <v>191</v>
-      </c>
-      <c r="C26" s="68">
-        <v>1</v>
-      </c>
-      <c r="D26" s="68">
-        <v>1.52</v>
-      </c>
-      <c r="E26" s="68">
-        <v>1.75</v>
-      </c>
-      <c r="F26" s="68">
-        <v>1.73</v>
-      </c>
-      <c r="G26" s="69"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="68">
-        <v>1</v>
-      </c>
-      <c r="D27" s="68">
-        <v>1</v>
-      </c>
-      <c r="E27" s="68">
-        <v>1</v>
-      </c>
-      <c r="F27" s="68">
-        <v>1</v>
-      </c>
-      <c r="G27" s="69"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="C28" s="68">
-        <v>1</v>
-      </c>
-      <c r="D28" s="68">
-        <v>1</v>
-      </c>
-      <c r="E28" s="68">
-        <v>1</v>
-      </c>
-      <c r="F28" s="68">
-        <v>1</v>
-      </c>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="68">
-        <v>1</v>
-      </c>
-      <c r="D29" s="68">
-        <v>1.52</v>
-      </c>
-      <c r="E29" s="68">
-        <v>1.75</v>
-      </c>
-      <c r="F29" s="68">
-        <v>1.52</v>
-      </c>
-      <c r="G29" s="69"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="C30" s="68">
-        <v>1</v>
-      </c>
-      <c r="D30" s="68">
-        <v>1</v>
-      </c>
-      <c r="E30" s="68">
-        <v>1.33</v>
-      </c>
-      <c r="F30" s="68">
-        <v>1</v>
-      </c>
-      <c r="G30" s="69"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="C31" s="68">
-        <v>1</v>
-      </c>
-      <c r="D31" s="68">
-        <v>1</v>
-      </c>
-      <c r="E31" s="68">
-        <v>1.33</v>
-      </c>
-      <c r="F31" s="68">
-        <v>1</v>
-      </c>
-      <c r="G31" s="69"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="64"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="69"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="69"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="68">
-        <v>1</v>
-      </c>
-      <c r="D35" s="71">
-        <v>1</v>
-      </c>
-      <c r="E35" s="71">
-        <v>1</v>
-      </c>
-      <c r="F35" s="71">
-        <v>1</v>
-      </c>
-      <c r="G35" s="69"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="68">
-        <v>1</v>
-      </c>
-      <c r="D36" s="71">
-        <v>1.41</v>
-      </c>
-      <c r="E36" s="71">
-        <v>1.49</v>
-      </c>
-      <c r="F36" s="71">
-        <v>3.03</v>
-      </c>
-      <c r="G36" s="69"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C37" s="68">
-        <v>1</v>
-      </c>
-      <c r="D37" s="71">
-        <v>1.18</v>
-      </c>
-      <c r="E37" s="71">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F37" s="71">
-        <v>1.77</v>
-      </c>
-      <c r="G37" s="69"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="68">
-        <v>1</v>
-      </c>
-      <c r="D38" s="71">
-        <v>1</v>
-      </c>
-      <c r="E38" s="71">
-        <v>1</v>
-      </c>
-      <c r="F38" s="71">
-        <v>1</v>
-      </c>
-      <c r="G38" s="69"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>